--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.2120474150098</v>
+        <v>160.3788863924267</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3746943037261</v>
+        <v>219.4374677791291</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.0687585667198</v>
+        <v>198.4946638367723</v>
       </c>
       <c r="AD2" t="n">
-        <v>117212.0474150098</v>
+        <v>160378.8863924267</v>
       </c>
       <c r="AE2" t="n">
-        <v>160374.6943037261</v>
+        <v>219437.4677791291</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.098538557197762e-06</v>
+        <v>4.467052773996599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>145068.7585667198</v>
+        <v>198494.6638367723</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.0659080280063</v>
+        <v>135.5141278639193</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.2828340770421</v>
+        <v>185.4164082047153</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.0853144739429</v>
+        <v>167.7205264392727</v>
       </c>
       <c r="AD3" t="n">
-        <v>101065.9080280063</v>
+        <v>135514.1278639193</v>
       </c>
       <c r="AE3" t="n">
-        <v>138282.8340770421</v>
+        <v>185416.4082047153</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.671969394081763e-06</v>
+        <v>5.293747605547918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>125085.3144739429</v>
+        <v>167720.5264392727</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.852511591444</v>
+        <v>124.3859827733775</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.9401703724086</v>
+        <v>170.1903891527311</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.206933059711</v>
+        <v>153.947657275753</v>
       </c>
       <c r="AD4" t="n">
-        <v>89852.511591444</v>
+        <v>124385.9827733775</v>
       </c>
       <c r="AE4" t="n">
-        <v>122940.1703724086</v>
+        <v>170190.389152731</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.904894306413975e-06</v>
+        <v>5.62954716284228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>111206.933059711</v>
+        <v>153947.657275753</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.7736724001813</v>
+        <v>123.3071435821148</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.4640549958977</v>
+        <v>168.7142737762201</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.8716960629929</v>
+        <v>152.6124202790349</v>
       </c>
       <c r="AD5" t="n">
-        <v>88773.6724001813</v>
+        <v>123307.1435821148</v>
       </c>
       <c r="AE5" t="n">
-        <v>121464.0549958977</v>
+        <v>168714.2737762201</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.014599395898031e-06</v>
+        <v>5.787705086410124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.565104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>109871.6960629929</v>
+        <v>152612.4202790349</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.17611625900163</v>
+        <v>122.5389952403429</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.6464523212198</v>
+        <v>167.6632593266953</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.1321242400734</v>
+        <v>151.6617131734643</v>
       </c>
       <c r="AD6" t="n">
-        <v>88176.11625900163</v>
+        <v>122538.9952403429</v>
       </c>
       <c r="AE6" t="n">
-        <v>120646.4523212198</v>
+        <v>167663.2593266953</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.06055882593933e-06</v>
+        <v>5.853963161198439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>109132.1242400734</v>
+        <v>151661.7131734643</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.63213739511021</v>
+        <v>121.9950163764515</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.9021564409901</v>
+        <v>166.9189634464657</v>
       </c>
       <c r="AC7" t="n">
-        <v>108.4588629140268</v>
+        <v>150.9884518474177</v>
       </c>
       <c r="AD7" t="n">
-        <v>87632.1373951102</v>
+        <v>121995.0163764515</v>
       </c>
       <c r="AE7" t="n">
-        <v>119902.1564409901</v>
+        <v>166918.9634464656</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.097998605414314e-06</v>
+        <v>5.90793875894372e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>108458.8629140268</v>
+        <v>150988.4518474177</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.11359113325281</v>
+        <v>121.4764701145941</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.1926585688707</v>
+        <v>166.2094655743462</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.8170785230357</v>
+        <v>150.3466674564266</v>
       </c>
       <c r="AD8" t="n">
-        <v>87113.5911332528</v>
+        <v>121476.4701145941</v>
       </c>
       <c r="AE8" t="n">
-        <v>119192.6585688707</v>
+        <v>166209.4655743462</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.139779905451859e-06</v>
+        <v>5.968173372387643e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH8" t="n">
-        <v>107817.0785230357</v>
+        <v>150346.6674564267</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>86.12631475025023</v>
+        <v>112.0265076452514</v>
       </c>
       <c r="AB9" t="n">
-        <v>117.8418234660872</v>
+        <v>153.2796100208774</v>
       </c>
       <c r="AC9" t="n">
-        <v>106.5951652265525</v>
+        <v>138.6508191698105</v>
       </c>
       <c r="AD9" t="n">
-        <v>86126.31475025023</v>
+        <v>112026.5076452514</v>
       </c>
       <c r="AE9" t="n">
-        <v>117841.8234660872</v>
+        <v>153279.6100208774</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.194959231311499e-06</v>
+        <v>6.047723442880065e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>106595.1652265525</v>
+        <v>138650.8191698105</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.09400187084931</v>
+        <v>111.9941947658505</v>
       </c>
       <c r="AB10" t="n">
-        <v>117.7976115589473</v>
+        <v>153.2353981137374</v>
       </c>
       <c r="AC10" t="n">
-        <v>106.5551728417781</v>
+        <v>138.6108267850362</v>
       </c>
       <c r="AD10" t="n">
-        <v>86094.00187084932</v>
+        <v>111994.1947658505</v>
       </c>
       <c r="AE10" t="n">
-        <v>117797.6115589473</v>
+        <v>153235.3981137374</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.189123854211283e-06</v>
+        <v>6.039310787371136e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>106555.1728417781</v>
+        <v>138610.8267850362</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.03658877906064</v>
+        <v>111.9367816740618</v>
       </c>
       <c r="AB11" t="n">
-        <v>117.7190564338752</v>
+        <v>153.1568429886653</v>
       </c>
       <c r="AC11" t="n">
-        <v>106.4841149075901</v>
+        <v>138.5397688508482</v>
       </c>
       <c r="AD11" t="n">
-        <v>86036.58877906064</v>
+        <v>111936.7816740618</v>
       </c>
       <c r="AE11" t="n">
-        <v>117719.0564338752</v>
+        <v>153156.8429886653</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.190781101307745e-06</v>
+        <v>6.041699981535672e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>106484.1149075901</v>
+        <v>138539.7688508482</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.3111236747742</v>
+        <v>142.3129005952171</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.2501048262149</v>
+        <v>194.7187889963565</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.1511474533697</v>
+        <v>176.1351010641361</v>
       </c>
       <c r="AD2" t="n">
-        <v>100311.1236747742</v>
+        <v>142312.9005952171</v>
       </c>
       <c r="AE2" t="n">
-        <v>137250.1048262148</v>
+        <v>194718.7889963565</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.532337907159618e-06</v>
+        <v>5.171209813228452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>124151.1474533697</v>
+        <v>176135.1010641361</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.51631364398639</v>
+        <v>120.186007863998</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.3754371580336</v>
+        <v>164.443798191905</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.0778515766712</v>
+        <v>148.7495128908354</v>
       </c>
       <c r="AD3" t="n">
-        <v>86516.31364398639</v>
+        <v>120186.007863998</v>
       </c>
       <c r="AE3" t="n">
-        <v>118375.4371580336</v>
+        <v>164443.7981919051</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.070007218235873e-06</v>
+        <v>5.958337458087619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107077.8515766712</v>
+        <v>148749.5128908354</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.80997885961293</v>
+        <v>118.3090808790324</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.0407546278772</v>
+        <v>161.8757038869018</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.9659878704447</v>
+        <v>146.4265139019578</v>
       </c>
       <c r="AD4" t="n">
-        <v>84809.97885961292</v>
+        <v>118309.0808790324</v>
       </c>
       <c r="AE4" t="n">
-        <v>116040.7546278772</v>
+        <v>161875.7038869018</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.265738454396296e-06</v>
+        <v>6.244880624622331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>104965.9878704447</v>
+        <v>146426.5139019578</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.73885300016826</v>
+        <v>108.9912131737281</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.5751929722479</v>
+        <v>149.1265862171999</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.6402973622995</v>
+        <v>134.8941541291492</v>
       </c>
       <c r="AD5" t="n">
-        <v>83738.85300016827</v>
+        <v>108991.2131737281</v>
       </c>
       <c r="AE5" t="n">
-        <v>114575.1929722479</v>
+        <v>149126.5862171999</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.38429759201629e-06</v>
+        <v>6.418446742027393e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103640.2973622995</v>
+        <v>134894.1541291492</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.10854395811103</v>
+        <v>108.3609041316708</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.7127763336332</v>
+        <v>148.2641695785852</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.8601885572645</v>
+        <v>134.1140453241142</v>
       </c>
       <c r="AD6" t="n">
-        <v>83108.54395811103</v>
+        <v>108360.9041316708</v>
       </c>
       <c r="AE6" t="n">
-        <v>113712.7763336332</v>
+        <v>148264.1695785852</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.429861969346011e-06</v>
+        <v>6.485151276353941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>102860.1885572645</v>
+        <v>134114.0453241142</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.55071110907971</v>
+        <v>107.8030712826395</v>
       </c>
       <c r="AB7" t="n">
-        <v>112.9495248197406</v>
+        <v>147.5009180646925</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.1697806966273</v>
+        <v>133.423637463477</v>
       </c>
       <c r="AD7" t="n">
-        <v>82550.71110907971</v>
+        <v>107803.0712826395</v>
       </c>
       <c r="AE7" t="n">
-        <v>112949.5248197406</v>
+        <v>147500.9180646925</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.468109968121993e-06</v>
+        <v>6.541144907712316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>102169.7806966273</v>
+        <v>133423.637463477</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.35317232150041</v>
+        <v>106.9375256869404</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.3650464838071</v>
+        <v>146.3166403954809</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.78634731064507</v>
+        <v>132.3523855928704</v>
       </c>
       <c r="AD8" t="n">
-        <v>73353.1723215004</v>
+        <v>106937.5256869404</v>
       </c>
       <c r="AE8" t="n">
-        <v>100365.0464838071</v>
+        <v>146316.6403954809</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.514060688873694e-06</v>
+        <v>6.608415034274807e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>90786.34731064507</v>
+        <v>132352.3855928704</v>
       </c>
     </row>
   </sheetData>
@@ -5411,28 +5411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.44199919489499</v>
+        <v>97.7439549061653</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.8548274476363</v>
+        <v>133.737591261513</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.13394567020761</v>
+        <v>120.9738632534381</v>
       </c>
       <c r="AD2" t="n">
-        <v>74441.99919489499</v>
+        <v>97743.95490616529</v>
       </c>
       <c r="AE2" t="n">
-        <v>101854.8274476363</v>
+        <v>133737.591261513</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.011787662901698e-06</v>
+        <v>7.753854134069899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92133.94567020761</v>
+        <v>120973.8632534381</v>
       </c>
     </row>
     <row r="3">
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.83412121114442</v>
+        <v>88.22132826843529</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.70890492061395</v>
+        <v>120.7083133871399</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.24265153874192</v>
+        <v>109.1880813726846</v>
       </c>
       <c r="AD3" t="n">
-        <v>64834.12121114442</v>
+        <v>88221.32826843529</v>
       </c>
       <c r="AE3" t="n">
-        <v>88708.90492061395</v>
+        <v>120708.3133871399</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.326654499966068e-06</v>
+        <v>8.24099199594004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>80242.65153874192</v>
+        <v>109188.0813726847</v>
       </c>
     </row>
     <row r="4">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.69206495195037</v>
+        <v>88.07927200924124</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.51453727970491</v>
+        <v>120.5139457462308</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.06683407268447</v>
+        <v>109.0122639066272</v>
       </c>
       <c r="AD4" t="n">
-        <v>64692.06495195037</v>
+        <v>88079.27200924123</v>
       </c>
       <c r="AE4" t="n">
-        <v>88514.53727970491</v>
+        <v>120513.9457462308</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.369980349187315e-06</v>
+        <v>8.308022432521177e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80066.83407268448</v>
+        <v>109012.2639066272</v>
       </c>
     </row>
   </sheetData>
@@ -5920,28 +5920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.26417095010825</v>
+        <v>112.3500329970861</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.820979699205</v>
+        <v>153.7222716801886</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.33981953145398</v>
+        <v>139.0512338216368</v>
       </c>
       <c r="AD2" t="n">
-        <v>80264.17095010825</v>
+        <v>112350.0329970861</v>
       </c>
       <c r="AE2" t="n">
-        <v>109820.979699205</v>
+        <v>153722.2716801886</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421556258679352e-06</v>
+        <v>6.682271304857715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99339.81953145398</v>
+        <v>139051.2338216368</v>
       </c>
     </row>
     <row r="3">
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.47530875898094</v>
+        <v>101.4758299513872</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.05918247830446</v>
+        <v>138.8437073370905</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.98686751899899</v>
+        <v>125.592658777243</v>
       </c>
       <c r="AD3" t="n">
-        <v>69475.30875898094</v>
+        <v>101475.8299513872</v>
       </c>
       <c r="AE3" t="n">
-        <v>95059.18247830446</v>
+        <v>138843.7073370905</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.842149918707166e-06</v>
+        <v>7.317911966421612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>85986.86751899899</v>
+        <v>125592.658777243</v>
       </c>
     </row>
     <row r="4">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.26859165352596</v>
+        <v>100.2691128459323</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.40809889802034</v>
+        <v>137.1926237568064</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.4933610383063</v>
+        <v>124.0991522965504</v>
       </c>
       <c r="AD4" t="n">
-        <v>68268.59165352596</v>
+        <v>100269.1128459322</v>
       </c>
       <c r="AE4" t="n">
-        <v>93408.09889802034</v>
+        <v>137192.6237568064</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.002968932307308e-06</v>
+        <v>7.560956771685885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>84493.36103830631</v>
+        <v>124099.1522965504</v>
       </c>
     </row>
     <row r="5">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.92761575092395</v>
+        <v>99.92813694333023</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.94156062528533</v>
+        <v>136.7260854840714</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.07134852353039</v>
+        <v>123.6771397817744</v>
       </c>
       <c r="AD5" t="n">
-        <v>67927.61575092394</v>
+        <v>99928.13694333023</v>
       </c>
       <c r="AE5" t="n">
-        <v>92941.56062528533</v>
+        <v>136726.0854840714</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.048154976679972e-06</v>
+        <v>7.629246168003929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>84071.3485235304</v>
+        <v>123677.1397817744</v>
       </c>
     </row>
   </sheetData>
@@ -6535,28 +6535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.56954208843053</v>
+        <v>92.71944778242312</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.61040785873848</v>
+        <v>126.8628389492025</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.43987068768293</v>
+        <v>114.7552276530369</v>
       </c>
       <c r="AD2" t="n">
-        <v>62569.54208843053</v>
+        <v>92719.44778242311</v>
       </c>
       <c r="AE2" t="n">
-        <v>85610.40785873849</v>
+        <v>126862.8389492025</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.498962428494388e-06</v>
+        <v>8.691044077580182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77439.87068768292</v>
+        <v>114755.2276530369</v>
       </c>
     </row>
     <row r="3">
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.09108408074614</v>
+        <v>84.68226764614872</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.95576050454746</v>
+        <v>115.8660145113944</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.84770195817235</v>
+        <v>104.8079247054297</v>
       </c>
       <c r="AD3" t="n">
-        <v>62091.08408074614</v>
+        <v>84682.26764614871</v>
       </c>
       <c r="AE3" t="n">
-        <v>84955.76050454746</v>
+        <v>115866.0145113944</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.605747635266332e-06</v>
+        <v>8.859816814429485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>76847.70195817236</v>
+        <v>104807.9247054297</v>
       </c>
     </row>
   </sheetData>
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.8043449616406</v>
+        <v>144.7011650799525</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6073931191496</v>
+        <v>197.9865178271627</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.138196302212</v>
+        <v>179.0909624416174</v>
       </c>
       <c r="AD2" t="n">
-        <v>110804.3449616406</v>
+        <v>144701.1650799525</v>
       </c>
       <c r="AE2" t="n">
-        <v>151607.3931191496</v>
+        <v>197986.5178271627</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42108924821106e-06</v>
+        <v>4.987559108099131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>137138.196302212</v>
+        <v>179090.9624416174</v>
       </c>
     </row>
     <row r="3">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.7822512026336</v>
+        <v>121.6789818123945</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.1075487749973</v>
+        <v>166.486551013462</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.6446528919464</v>
+        <v>150.5973082501252</v>
       </c>
       <c r="AD3" t="n">
-        <v>87782.2512026336</v>
+        <v>121678.9818123945</v>
       </c>
       <c r="AE3" t="n">
-        <v>120107.5487749973</v>
+        <v>166486.551013462</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.986233617637148e-06</v>
+        <v>5.811475335539254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>108644.6528919464</v>
+        <v>150597.3082501252</v>
       </c>
     </row>
     <row r="4">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.03687318879389</v>
+        <v>119.7630115979626</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.7194455758195</v>
+        <v>163.8650360394373</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.4844669103734</v>
+        <v>148.2259869859012</v>
       </c>
       <c r="AD4" t="n">
-        <v>86036.87318879389</v>
+        <v>119763.0115979626</v>
       </c>
       <c r="AE4" t="n">
-        <v>117719.4455758195</v>
+        <v>163865.0360394373</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.176186448416006e-06</v>
+        <v>6.088404963071103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.4609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>106484.4669103734</v>
+        <v>148225.9869859013</v>
       </c>
     </row>
     <row r="5">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.21277049148817</v>
+        <v>118.9389089006569</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.5918719085213</v>
+        <v>162.7374623721392</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.4645072913222</v>
+        <v>147.2060273668501</v>
       </c>
       <c r="AD5" t="n">
-        <v>85212.77049148818</v>
+        <v>118938.9089006569</v>
       </c>
       <c r="AE5" t="n">
-        <v>116591.8719085213</v>
+        <v>162737.4623721392</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.25266531553231e-06</v>
+        <v>6.199902454831217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>105464.5072913222</v>
+        <v>147206.0273668501</v>
       </c>
     </row>
     <row r="6">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.38044708739102</v>
+        <v>109.8030845532627</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.4530503075191</v>
+        <v>150.237424455916</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.4343732255731</v>
+        <v>135.8989755254339</v>
       </c>
       <c r="AD6" t="n">
-        <v>84380.44708739102</v>
+        <v>109803.0845532627</v>
       </c>
       <c r="AE6" t="n">
-        <v>115453.0503075191</v>
+        <v>150237.424455916</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.339433892554752e-06</v>
+        <v>6.326401173580334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>104434.3732255731</v>
+        <v>135898.9755254339</v>
       </c>
     </row>
     <row r="7">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.85299361475597</v>
+        <v>109.2756310806277</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.7313651966553</v>
+        <v>149.5157393450522</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.7815647287985</v>
+        <v>135.2461670286592</v>
       </c>
       <c r="AD7" t="n">
-        <v>83852.99361475598</v>
+        <v>109275.6310806277</v>
       </c>
       <c r="AE7" t="n">
-        <v>114731.3651966553</v>
+        <v>149515.7393450522</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.378247635503014e-06</v>
+        <v>6.382987197245824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.122395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>103781.5647287985</v>
+        <v>135246.1670286593</v>
       </c>
     </row>
     <row r="8">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.87774685771265</v>
+        <v>108.3003843235844</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.3969895588189</v>
+        <v>148.1813637072158</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.5745400290289</v>
+        <v>134.0391423288896</v>
       </c>
       <c r="AD8" t="n">
-        <v>82877.74685771266</v>
+        <v>108300.3843235844</v>
       </c>
       <c r="AE8" t="n">
-        <v>113396.9895588189</v>
+        <v>148181.3637072158</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.430031198844592e-06</v>
+        <v>6.458481744232334e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH8" t="n">
-        <v>102574.5400290289</v>
+        <v>134039.1423288896</v>
       </c>
     </row>
     <row r="9">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.9849898370795</v>
+        <v>108.4076273029512</v>
       </c>
       <c r="AB9" t="n">
-        <v>113.5437241344149</v>
+        <v>148.3280982828118</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.7072704626733</v>
+        <v>134.171872762534</v>
       </c>
       <c r="AD9" t="n">
-        <v>82984.9898370795</v>
+        <v>108407.6273029512</v>
       </c>
       <c r="AE9" t="n">
-        <v>113543.7241344149</v>
+        <v>148328.0982828118</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.425699948860847e-06</v>
+        <v>6.452167274267198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.044270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>102707.2704626733</v>
+        <v>134171.872762534</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.50544736664442</v>
+        <v>82.72628196375496</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.78622239895982</v>
+        <v>113.1897486087465</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.88522152441546</v>
+        <v>102.3870778643668</v>
       </c>
       <c r="AD2" t="n">
-        <v>60505.44736664442</v>
+        <v>82726.28196375495</v>
       </c>
       <c r="AE2" t="n">
-        <v>82786.22239895983</v>
+        <v>113189.7486087465</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.739053898941033e-06</v>
+        <v>9.195312436538151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74885.22152441545</v>
+        <v>102387.0778643668</v>
       </c>
     </row>
   </sheetData>
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.43968564097901</v>
+        <v>127.2872855828496</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.2165442788157</v>
+        <v>174.1600796530952</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.8842986494387</v>
+        <v>157.5384860862593</v>
       </c>
       <c r="AD2" t="n">
-        <v>94439.68564097901</v>
+        <v>127287.2855828496</v>
       </c>
       <c r="AE2" t="n">
-        <v>129216.5442788157</v>
+        <v>174160.0796530952</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.92077664452848e-06</v>
+        <v>5.821738528092234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>116884.2986494387</v>
+        <v>157538.4860862593</v>
       </c>
     </row>
     <row r="3">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.11366451758164</v>
+        <v>114.8759236048806</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.3515383921183</v>
+        <v>157.1783066442002</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.6288652543779</v>
+        <v>142.1774296592598</v>
       </c>
       <c r="AD3" t="n">
-        <v>82113.66451758164</v>
+        <v>114875.9236048806</v>
       </c>
       <c r="AE3" t="n">
-        <v>112351.5383921183</v>
+        <v>157178.3066442002</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.431354818589432e-06</v>
+        <v>6.579867056449426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>101628.8652543779</v>
+        <v>142177.4296592598</v>
       </c>
     </row>
     <row r="4">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.65034009938023</v>
+        <v>105.3500680738497</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.3493533658191</v>
+        <v>144.144610855564</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.81776595690373</v>
+        <v>130.3876515037799</v>
       </c>
       <c r="AD4" t="n">
-        <v>80650.34009938024</v>
+        <v>105350.0680738497</v>
       </c>
       <c r="AE4" t="n">
-        <v>110349.3533658191</v>
+        <v>144144.610855564</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.621375580343443e-06</v>
+        <v>6.862018091853229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>99817.76595690372</v>
+        <v>130387.65150378</v>
       </c>
     </row>
     <row r="5">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.43484877048218</v>
+        <v>104.2823592038017</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.74031157084315</v>
+        <v>142.6837244755743</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.41211341393497</v>
+        <v>129.066190069529</v>
       </c>
       <c r="AD5" t="n">
-        <v>71434.84877048217</v>
+        <v>104282.3592038017</v>
       </c>
       <c r="AE5" t="n">
-        <v>97740.31157084314</v>
+        <v>142683.7244755743</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.710315646233805e-06</v>
+        <v>6.99408014364278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>88412.11341393497</v>
+        <v>129066.190069529</v>
       </c>
     </row>
     <row r="6">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.93692980491984</v>
+        <v>103.7844402382394</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.05903687552667</v>
+        <v>142.0024497802578</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.79585861936424</v>
+        <v>128.4499352749583</v>
       </c>
       <c r="AD6" t="n">
-        <v>70936.92980491984</v>
+        <v>103784.4402382394</v>
       </c>
       <c r="AE6" t="n">
-        <v>97059.03687552667</v>
+        <v>142002.4497802578</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.750046355388185e-06</v>
+        <v>7.05307401684779e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>87795.85861936424</v>
+        <v>128449.9352749583</v>
       </c>
     </row>
     <row r="7">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.03036758587874</v>
+        <v>103.8778780191983</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.18688256961853</v>
+        <v>142.1302954743497</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.91150289984458</v>
+        <v>128.5655795554386</v>
       </c>
       <c r="AD7" t="n">
-        <v>71030.36758587873</v>
+        <v>103877.8780191983</v>
       </c>
       <c r="AE7" t="n">
-        <v>97186.88256961854</v>
+        <v>142130.2954743497</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.746264847691588e-06</v>
+        <v>7.047459070869606e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>87911.50289984458</v>
+        <v>128565.5795554386</v>
       </c>
     </row>
   </sheetData>
@@ -9101,28 +9101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.1846224000127</v>
+        <v>139.891812153674</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.3405319674725</v>
+        <v>191.4061489797552</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.5192601446536</v>
+        <v>173.1386147613987</v>
       </c>
       <c r="AD2" t="n">
-        <v>98184.6224000127</v>
+        <v>139891.812153674</v>
       </c>
       <c r="AE2" t="n">
-        <v>134340.5319674725</v>
+        <v>191406.1489797551</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.671826789854613e-06</v>
+        <v>5.399210087854025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>121519.2601446536</v>
+        <v>173138.6147613987</v>
       </c>
     </row>
     <row r="3">
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.97563585009074</v>
+        <v>118.4096603366771</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.2674138305194</v>
+        <v>162.0133211381037</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.171015036905</v>
+        <v>146.5509971558521</v>
       </c>
       <c r="AD3" t="n">
-        <v>84975.63585009074</v>
+        <v>118409.6603366771</v>
       </c>
       <c r="AE3" t="n">
-        <v>116267.4138305195</v>
+        <v>162013.3211381037</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.196906259829906e-06</v>
+        <v>6.171309245431091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.565104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105171.015036905</v>
+        <v>146550.9971558521</v>
       </c>
     </row>
     <row r="4">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.41440868353183</v>
+        <v>108.4900165570226</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.1312739447531</v>
+        <v>148.4408268949896</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.2387453437443</v>
+        <v>134.2738427141812</v>
       </c>
       <c r="AD4" t="n">
-        <v>83414.40868353183</v>
+        <v>108490.0165570226</v>
       </c>
       <c r="AE4" t="n">
-        <v>114131.2739447531</v>
+        <v>148440.8268949896</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.388524555799256e-06</v>
+        <v>6.453072927605237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>103238.7453437443</v>
+        <v>134273.8427141812</v>
       </c>
     </row>
     <row r="5">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.57937203521007</v>
+        <v>107.6549799087009</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.9887399633029</v>
+        <v>147.2982929135395</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.2052532019269</v>
+        <v>133.2403505723637</v>
       </c>
       <c r="AD5" t="n">
-        <v>82579.37203521006</v>
+        <v>107654.9799087009</v>
       </c>
       <c r="AE5" t="n">
-        <v>112988.7399633029</v>
+        <v>147298.2929135395</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.470354172841504e-06</v>
+        <v>6.573398672556085e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>102205.2532019269</v>
+        <v>133240.3505723637</v>
       </c>
     </row>
     <row r="6">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.85688724270649</v>
+        <v>106.9324951161973</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.0002043964205</v>
+        <v>146.3097573466571</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.311062082129</v>
+        <v>132.3461594525659</v>
       </c>
       <c r="AD6" t="n">
-        <v>81856.88724270649</v>
+        <v>106932.4951161973</v>
       </c>
       <c r="AE6" t="n">
-        <v>112000.2043964205</v>
+        <v>146309.757346657</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.518691417582278e-06</v>
+        <v>6.644475810547605e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>101311.062082129</v>
+        <v>132346.1594525659</v>
       </c>
     </row>
     <row r="7">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.90567163645645</v>
+        <v>106.2543552684712</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.75275630419344</v>
+        <v>145.38189648958</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.23249324641884</v>
+        <v>131.5068523334271</v>
       </c>
       <c r="AD7" t="n">
-        <v>72905.67163645645</v>
+        <v>106254.3552684712</v>
       </c>
       <c r="AE7" t="n">
-        <v>99752.75630419343</v>
+        <v>145381.89648958</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.557400214681798e-06</v>
+        <v>6.70139487011923e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>90232.49324641885</v>
+        <v>131506.8523334271</v>
       </c>
     </row>
     <row r="8">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.78807144882765</v>
+        <v>106.1367550808424</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.59185053932568</v>
+        <v>145.2209907247123</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.08694410191735</v>
+        <v>131.3613031889256</v>
       </c>
       <c r="AD8" t="n">
-        <v>72788.07144882766</v>
+        <v>106136.7550808424</v>
       </c>
       <c r="AE8" t="n">
-        <v>99591.85053932568</v>
+        <v>145220.9907247123</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.560008427080821e-06</v>
+        <v>6.705230096425379e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>90086.94410191735</v>
+        <v>131361.3031889256</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2455690982498</v>
+        <v>158.1555451398952</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.684071915836</v>
+        <v>216.3953941905235</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6349254032168</v>
+        <v>195.7429214818852</v>
       </c>
       <c r="AD2" t="n">
-        <v>115245.5690982498</v>
+        <v>158155.5451398952</v>
       </c>
       <c r="AE2" t="n">
-        <v>157684.071915836</v>
+        <v>216395.3941905235</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189775271620105e-06</v>
+        <v>4.614879165421264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>142634.9254032168</v>
+        <v>195742.9214818852</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.22512369220838</v>
+        <v>133.4678531795041</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7641917391312</v>
+        <v>182.616604906232</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.8070478258247</v>
+        <v>165.1879324380472</v>
       </c>
       <c r="AD3" t="n">
-        <v>99225.12369220839</v>
+        <v>133467.853179504</v>
       </c>
       <c r="AE3" t="n">
-        <v>135764.1917391312</v>
+        <v>182616.604906232</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792824034920283e-06</v>
+        <v>5.487353536342556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>122807.0478258247</v>
+        <v>165187.9324380472</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.79857761417658</v>
+        <v>123.1265584474928</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.4981314084266</v>
+        <v>168.4671892281766</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.9025202705365</v>
+        <v>152.3889171334713</v>
       </c>
       <c r="AD4" t="n">
-        <v>88798.57761417658</v>
+        <v>123126.5584474928</v>
       </c>
       <c r="AE4" t="n">
-        <v>121498.1314084266</v>
+        <v>168467.1892281766</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.971919941683224e-06</v>
+        <v>5.746464570303497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>109902.5202705365</v>
+        <v>152388.9171334713</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.47574849597287</v>
+        <v>121.6331371286969</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.6881782497992</v>
+        <v>166.4238242947024</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.2653065010828</v>
+        <v>150.5405680813665</v>
       </c>
       <c r="AD5" t="n">
-        <v>87475.74849597286</v>
+        <v>121633.1371286969</v>
       </c>
       <c r="AE5" t="n">
-        <v>119688.1782497992</v>
+        <v>166423.8242947024</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.101159801884069e-06</v>
+        <v>5.933445246807366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>108265.3065010828</v>
+        <v>150540.5680813665</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.0689259698183</v>
+        <v>121.2263146025424</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.1315457217717</v>
+        <v>165.8671917666748</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.7617982002914</v>
+        <v>150.037059780575</v>
       </c>
       <c r="AD6" t="n">
-        <v>87068.9259698183</v>
+        <v>121226.3146025424</v>
       </c>
       <c r="AE6" t="n">
-        <v>119131.5457217717</v>
+        <v>165867.1917666748</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.128946489467758e-06</v>
+        <v>5.973646262454748e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>107761.7982002914</v>
+        <v>150037.059780575</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.31615322654883</v>
+        <v>120.4735418592729</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.1015688444413</v>
+        <v>164.8372148893445</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.8301208705515</v>
+        <v>149.1053824508352</v>
       </c>
       <c r="AD7" t="n">
-        <v>86316.15322654883</v>
+        <v>120473.5418592729</v>
       </c>
       <c r="AE7" t="n">
-        <v>118101.5688444413</v>
+        <v>164837.2148893445</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.183602268686138e-06</v>
+        <v>6.052720741158278e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>106830.1208705515</v>
+        <v>149105.3824508351</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.74700023009002</v>
+        <v>111.4930753636283</v>
       </c>
       <c r="AB8" t="n">
-        <v>117.3228286054287</v>
+        <v>152.5497444397895</v>
       </c>
       <c r="AC8" t="n">
-        <v>106.1257025069812</v>
+        <v>137.9906109354087</v>
       </c>
       <c r="AD8" t="n">
-        <v>85747.00023009002</v>
+        <v>111493.0753636282</v>
       </c>
       <c r="AE8" t="n">
-        <v>117322.8286054287</v>
+        <v>152549.7444397896</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.226611637782651e-06</v>
+        <v>6.114945513896138e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>106125.7025069811</v>
+        <v>137990.6109354087</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.10354464855024</v>
+        <v>110.8496197820885</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.4424242915096</v>
+        <v>151.6693401258705</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.329322745127</v>
+        <v>137.1942311735546</v>
       </c>
       <c r="AD9" t="n">
-        <v>85103.54464855025</v>
+        <v>110849.6197820885</v>
       </c>
       <c r="AE9" t="n">
-        <v>116442.4242915096</v>
+        <v>151669.3401258705</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.265127139539211e-06</v>
+        <v>6.170668682917955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>105329.322745127</v>
+        <v>137194.2311735546</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.12345429745233</v>
+        <v>110.8695294309905</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.4696655514891</v>
+        <v>151.69658138585</v>
       </c>
       <c r="AC10" t="n">
-        <v>105.3539641374875</v>
+        <v>137.2188725659151</v>
       </c>
       <c r="AD10" t="n">
-        <v>85123.45429745232</v>
+        <v>110869.5294309905</v>
       </c>
       <c r="AE10" t="n">
-        <v>116469.6655514891</v>
+        <v>151696.58138585</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.262774329413581e-06</v>
+        <v>6.167264701914789e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>105353.9641374874</v>
+        <v>137218.8725659151</v>
       </c>
     </row>
   </sheetData>
@@ -11179,28 +11179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.20962904622071</v>
+        <v>114.592865979016</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4828412938585</v>
+        <v>156.7910147128714</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7476367914608</v>
+        <v>141.8271003262892</v>
       </c>
       <c r="AD2" t="n">
-        <v>82209.62904622071</v>
+        <v>114592.865979016</v>
       </c>
       <c r="AE2" t="n">
-        <v>112482.8412938585</v>
+        <v>156791.0147128714</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.239356932046564e-06</v>
+        <v>6.366177078256147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>101747.6367914608</v>
+        <v>141827.1003262892</v>
       </c>
     </row>
     <row r="3">
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.95685260704285</v>
+        <v>103.2443698151904</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.032249067409</v>
+        <v>141.263501601217</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.72180284065681</v>
+        <v>127.7815112730046</v>
       </c>
       <c r="AD3" t="n">
-        <v>78956.85260704285</v>
+        <v>103244.3698151904</v>
       </c>
       <c r="AE3" t="n">
-        <v>108032.249067409</v>
+        <v>141263.501601217</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.726542789107591e-06</v>
+        <v>7.097776583980056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97721.8028406568</v>
+        <v>127781.5112730046</v>
       </c>
     </row>
     <row r="4">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.66518091755989</v>
+        <v>101.9630769957836</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.31897394224049</v>
+        <v>139.5103802390558</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.22186485023666</v>
+        <v>126.1957053531262</v>
       </c>
       <c r="AD4" t="n">
-        <v>69665.18091755989</v>
+        <v>101963.0769957836</v>
       </c>
       <c r="AE4" t="n">
-        <v>95318.9739422405</v>
+        <v>139510.3802390558</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.851673702028804e-06</v>
+        <v>7.285683750653971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>86221.86485023666</v>
+        <v>126195.7053531262</v>
       </c>
     </row>
     <row r="5">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.99873441109615</v>
+        <v>101.2966304893198</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.40711243055247</v>
+        <v>138.5985187273677</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.39703012141818</v>
+        <v>125.3708706243077</v>
       </c>
       <c r="AD5" t="n">
-        <v>68998.73441109616</v>
+        <v>101296.6304893198</v>
       </c>
       <c r="AE5" t="n">
-        <v>94407.11243055247</v>
+        <v>138598.5187273677</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.927856944985107e-06</v>
+        <v>7.400086954448728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>85397.03012141818</v>
+        <v>125370.8706243077</v>
       </c>
     </row>
     <row r="6">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.05995177340343</v>
+        <v>101.3578478516271</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.49087272638066</v>
+        <v>138.6822790231959</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.47279645217088</v>
+        <v>125.4466369550604</v>
       </c>
       <c r="AD6" t="n">
-        <v>69059.95177340343</v>
+        <v>101357.8478516271</v>
       </c>
       <c r="AE6" t="n">
-        <v>94490.87272638066</v>
+        <v>138682.2790231959</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.926813338917213e-06</v>
+        <v>7.398519787273456e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>85472.79645217088</v>
+        <v>125446.6369550604</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.58136388336843</v>
+        <v>100.1560293681605</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.7820005965131</v>
+        <v>137.0378979536282</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.78175352206983</v>
+        <v>123.9591933068684</v>
       </c>
       <c r="AD2" t="n">
-        <v>76581.36388336842</v>
+        <v>100156.0293681605</v>
       </c>
       <c r="AE2" t="n">
-        <v>104782.0005965131</v>
+        <v>137037.8979536282</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.774744851788951e-06</v>
+        <v>7.323249393171066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>94781.75352206983</v>
+        <v>123959.1933068684</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.35202547570114</v>
+        <v>97.69945258945086</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.78576850058941</v>
+        <v>133.6767012284807</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.12130217354152</v>
+        <v>120.9187844796987</v>
       </c>
       <c r="AD3" t="n">
-        <v>66352.02547570114</v>
+        <v>97699.45258945086</v>
       </c>
       <c r="AE3" t="n">
-        <v>90785.76850058942</v>
+        <v>133676.7012284807</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.180574698921528e-06</v>
+        <v>7.945689601809825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82121.30217354152</v>
+        <v>120918.7844796987</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.71701744864832</v>
+        <v>89.37693427946094</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.91692250339919</v>
+        <v>122.2894645131635</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.33537761888985</v>
+        <v>110.6183296544006</v>
       </c>
       <c r="AD4" t="n">
-        <v>65717.01744864832</v>
+        <v>89376.93427946094</v>
       </c>
       <c r="AE4" t="n">
-        <v>89916.9225033992</v>
+        <v>122289.4645131635</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.270670727966119e-06</v>
+        <v>8.083874093444119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81335.37761888985</v>
+        <v>110618.3296544006</v>
       </c>
     </row>
   </sheetData>
@@ -21662,28 +21662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.64676971734649</v>
+        <v>95.23446922314008</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.45256234143517</v>
+        <v>130.3040022393049</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.01077393554081</v>
+        <v>117.867971148436</v>
       </c>
       <c r="AD2" t="n">
-        <v>64646.76971734648</v>
+        <v>95234.46922314008</v>
       </c>
       <c r="AE2" t="n">
-        <v>88452.56234143517</v>
+        <v>130304.0022393049</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.241290365162361e-06</v>
+        <v>8.189412809197779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.809895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80010.77393554081</v>
+        <v>117867.971148436</v>
       </c>
     </row>
     <row r="3">
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.36142006294953</v>
+        <v>86.28094898720288</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.69389023866547</v>
+        <v>118.0534008510668</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.4199470299471</v>
+        <v>106.7865499628603</v>
       </c>
       <c r="AD3" t="n">
-        <v>63361.42006294953</v>
+        <v>86280.94898720288</v>
       </c>
       <c r="AE3" t="n">
-        <v>86693.89023866548</v>
+        <v>118053.4008510667</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.496589778112762e-06</v>
+        <v>8.588313106058536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>78419.9470299471</v>
+        <v>106786.5499628603</v>
       </c>
     </row>
   </sheetData>
@@ -22065,28 +22065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.80331916397473</v>
+        <v>80.76392849604014</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.45729549947177</v>
+        <v>110.5047700212955</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.77856413954436</v>
+        <v>99.95834986491013</v>
       </c>
       <c r="AD2" t="n">
-        <v>58803.31916397472</v>
+        <v>80763.92849604014</v>
       </c>
       <c r="AE2" t="n">
-        <v>80457.29549947177</v>
+        <v>110504.7700212955</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.827187025318547e-06</v>
+        <v>9.496427618246126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72778.56413954435</v>
+        <v>99958.34986491014</v>
       </c>
     </row>
   </sheetData>
@@ -22362,28 +22362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.10184600656007</v>
+        <v>129.2053772174238</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4907854203425</v>
+        <v>176.784497247749</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9414894083364</v>
+        <v>159.9124329490734</v>
       </c>
       <c r="AD2" t="n">
-        <v>96101.84600656007</v>
+        <v>129205.3772174238</v>
       </c>
       <c r="AE2" t="n">
-        <v>131490.7854203425</v>
+        <v>176784.497247749</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.808066675446823e-06</v>
+        <v>5.625964609583722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>118941.4894083364</v>
+        <v>159912.4329490734</v>
       </c>
     </row>
     <row r="3">
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.40063909491698</v>
+        <v>116.4188294512091</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.1124337861389</v>
+        <v>159.2893784913478</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.221703263426</v>
+        <v>144.0870237722242</v>
       </c>
       <c r="AD3" t="n">
-        <v>83400.63909491699</v>
+        <v>116418.8294512091</v>
       </c>
       <c r="AE3" t="n">
-        <v>114112.4337861389</v>
+        <v>159289.3784913478</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.332454731918724e-06</v>
+        <v>6.400685458465168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>103221.703263426</v>
+        <v>144087.0237722242</v>
       </c>
     </row>
     <row r="4">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.1610720416553</v>
+        <v>107.0527484678696</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.4164034580283</v>
+        <v>146.4742932876184</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.6875396894362</v>
+        <v>132.4949923142497</v>
       </c>
       <c r="AD4" t="n">
-        <v>82161.07204165531</v>
+        <v>107052.7484678696</v>
       </c>
       <c r="AE4" t="n">
-        <v>112416.4034580283</v>
+        <v>146474.2932876184</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.485487415441228e-06</v>
+        <v>6.626773007603528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>101687.5396894361</v>
+        <v>132494.9923142497</v>
       </c>
     </row>
     <row r="5">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.33987908891513</v>
+        <v>106.2315555151294</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.2928110316135</v>
+        <v>145.3507008612037</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.6711813472262</v>
+        <v>131.4786339720397</v>
       </c>
       <c r="AD5" t="n">
-        <v>81339.87908891513</v>
+        <v>106231.5555151294</v>
       </c>
       <c r="AE5" t="n">
-        <v>111292.8110316135</v>
+        <v>145350.7008612037</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.55934488818375e-06</v>
+        <v>6.735888620122041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>100671.1813472262</v>
+        <v>131478.6339720397</v>
       </c>
     </row>
     <row r="6">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.08270661834636</v>
+        <v>105.1861483206591</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.62673925976154</v>
+        <v>143.9203286176196</v>
       </c>
       <c r="AC6" t="n">
-        <v>89.21394168833234</v>
+        <v>130.1847744478428</v>
       </c>
       <c r="AD6" t="n">
-        <v>72082.70661834636</v>
+        <v>105186.1483206591</v>
       </c>
       <c r="AE6" t="n">
-        <v>98626.73925976154</v>
+        <v>143920.3286176196</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.645364224771206e-06</v>
+        <v>6.86297193683527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>89213.94168833234</v>
+        <v>130184.7744478428</v>
       </c>
     </row>
     <row r="7">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.00646239055395</v>
+        <v>105.1099040928667</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.52241854363808</v>
+        <v>143.8160079014962</v>
       </c>
       <c r="AC7" t="n">
-        <v>89.11957719494063</v>
+        <v>130.0904099544511</v>
       </c>
       <c r="AD7" t="n">
-        <v>72006.46239055395</v>
+        <v>105109.9040928667</v>
       </c>
       <c r="AE7" t="n">
-        <v>98522.41854363808</v>
+        <v>143816.0079014962</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.645856607922823e-06</v>
+        <v>6.863699374252061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>89119.57719494063</v>
+        <v>130090.4099544511</v>
       </c>
     </row>
   </sheetData>
@@ -23189,28 +23189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.6927089937055</v>
+        <v>155.1670309966459</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.191136096561</v>
+        <v>212.3063772957931</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.4753504761661</v>
+        <v>192.0441546206153</v>
       </c>
       <c r="AD2" t="n">
-        <v>112692.7089937055</v>
+        <v>155167.0309966459</v>
       </c>
       <c r="AE2" t="n">
-        <v>154191.136096561</v>
+        <v>212306.3772957932</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.321237618286763e-06</v>
+        <v>4.822998362816878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>139475.3504761661</v>
+        <v>192044.1546206153</v>
       </c>
     </row>
     <row r="3">
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.08540029533525</v>
+        <v>132.1160803121408</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.2047719064826</v>
+        <v>180.7670496330965</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.396456833344</v>
+        <v>163.514896124312</v>
       </c>
       <c r="AD3" t="n">
-        <v>98085.40029533525</v>
+        <v>132116.0803121408</v>
       </c>
       <c r="AE3" t="n">
-        <v>134204.7719064826</v>
+        <v>180767.0496330965</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.859103695044653e-06</v>
+        <v>5.604070814042516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>121396.456833344</v>
+        <v>163514.896124312</v>
       </c>
     </row>
     <row r="4">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.19692946835546</v>
+        <v>121.3128608311816</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.3066857555859</v>
+        <v>165.9856081348491</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.920223115089</v>
+        <v>150.1441746567692</v>
       </c>
       <c r="AD4" t="n">
-        <v>87196.92946835546</v>
+        <v>121312.8608311816</v>
       </c>
       <c r="AE4" t="n">
-        <v>119306.6857555859</v>
+        <v>165985.6081348491</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.095606293809624e-06</v>
+        <v>5.947512560084699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>107920.223115089</v>
+        <v>150144.1746567692</v>
       </c>
     </row>
     <row r="5">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.39272661699584</v>
+        <v>120.3380657792297</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.2063399354304</v>
+        <v>164.6518505398467</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.9248927556637</v>
+        <v>148.9377090146929</v>
       </c>
       <c r="AD5" t="n">
-        <v>86392.72661699585</v>
+        <v>120338.0657792297</v>
       </c>
       <c r="AE5" t="n">
-        <v>118206.3399354304</v>
+        <v>164651.8505398467</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.172234179656835e-06</v>
+        <v>6.058789201645161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>106924.8927556637</v>
+        <v>148937.7090146929</v>
       </c>
     </row>
     <row r="6">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.48196593955156</v>
+        <v>111.0690039702222</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.9601969966265</v>
+        <v>151.9695112506222</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.7976799499662</v>
+        <v>137.4657543874529</v>
       </c>
       <c r="AD6" t="n">
-        <v>85481.96593955156</v>
+        <v>111069.0039702222</v>
       </c>
       <c r="AE6" t="n">
-        <v>116960.1969966265</v>
+        <v>151969.5112506222</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.260273215068291e-06</v>
+        <v>6.186636761035525e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>105797.6799499662</v>
+        <v>137465.7543874529</v>
       </c>
     </row>
     <row r="7">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.96086669247592</v>
+        <v>110.5479047231466</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.2472060175016</v>
+        <v>151.2565202714974</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.1527358291997</v>
+        <v>136.8208102666864</v>
       </c>
       <c r="AD7" t="n">
-        <v>84960.86669247592</v>
+        <v>110547.9047231466</v>
       </c>
       <c r="AE7" t="n">
-        <v>116247.2060175016</v>
+        <v>151256.5202714974</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.295408168300402e-06</v>
+        <v>6.237658651484765e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>105152.7358291997</v>
+        <v>136820.8102666864</v>
       </c>
     </row>
     <row r="8">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.46649859397304</v>
+        <v>110.0535366246437</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.5707897751491</v>
+        <v>150.5801040291448</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.5408758036609</v>
+        <v>136.2089502411476</v>
       </c>
       <c r="AD8" t="n">
-        <v>84466.49859397304</v>
+        <v>110053.5366246437</v>
       </c>
       <c r="AE8" t="n">
-        <v>115570.7897751491</v>
+        <v>150580.1040291449</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.303853842406164e-06</v>
+        <v>6.24992319773725e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>104540.8758036609</v>
+        <v>136208.9502411477</v>
       </c>
     </row>
     <row r="9">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.04756644364294</v>
+        <v>109.6346044743136</v>
       </c>
       <c r="AB9" t="n">
-        <v>114.9975883250857</v>
+        <v>150.0069025790814</v>
       </c>
       <c r="AC9" t="n">
-        <v>104.0223798954981</v>
+        <v>135.6904543329848</v>
       </c>
       <c r="AD9" t="n">
-        <v>84047.56644364294</v>
+        <v>109634.6044743136</v>
       </c>
       <c r="AE9" t="n">
-        <v>114997.5883250857</v>
+        <v>150006.9025790814</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.34105276655738e-06</v>
+        <v>6.303942322804372e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>104022.3798954981</v>
+        <v>135690.4543329848</v>
       </c>
     </row>
   </sheetData>
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.76653951733106</v>
+        <v>85.14385454380349</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.67048373055903</v>
+        <v>116.4975780685421</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.2577217745409</v>
+        <v>105.3792127230884</v>
       </c>
       <c r="AD2" t="n">
-        <v>56766.53951733106</v>
+        <v>85143.85454380348</v>
       </c>
       <c r="AE2" t="n">
-        <v>77670.48373055903</v>
+        <v>116497.5780685421</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.783153785813494e-06</v>
+        <v>9.64017280618996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70257.7217745409</v>
+        <v>105379.2127230884</v>
       </c>
     </row>
   </sheetData>
@@ -24525,28 +24525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.23810553170316</v>
+        <v>109.837677234374</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0488276100466</v>
+        <v>150.2847556883339</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.83223774694413</v>
+        <v>135.9417895314596</v>
       </c>
       <c r="AD2" t="n">
-        <v>78238.10553170316</v>
+        <v>109837.677234374</v>
       </c>
       <c r="AE2" t="n">
-        <v>107048.8276100466</v>
+        <v>150284.7556883339</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.621226006144452e-06</v>
+        <v>7.033074459224424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96832.23774694413</v>
+        <v>135941.7895314596</v>
       </c>
     </row>
     <row r="3">
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.87346972532183</v>
+        <v>99.55829277401328</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.86747564430249</v>
+        <v>136.220048375239</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.00433410915363</v>
+        <v>123.2193981443813</v>
       </c>
       <c r="AD3" t="n">
-        <v>67873.46972532183</v>
+        <v>99558.29277401329</v>
       </c>
       <c r="AE3" t="n">
-        <v>92867.47564430248</v>
+        <v>136220.048375239</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.013615696594882e-06</v>
+        <v>7.630254927416319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.783854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>84004.33410915363</v>
+        <v>123219.3981443813</v>
       </c>
     </row>
     <row r="4">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.95949056697827</v>
+        <v>98.64431361566973</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.61692903794277</v>
+        <v>134.9695017688793</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.8731379157513</v>
+        <v>122.088201950979</v>
       </c>
       <c r="AD4" t="n">
-        <v>66959.49056697827</v>
+        <v>98644.31361566973</v>
       </c>
       <c r="AE4" t="n">
-        <v>91616.92903794277</v>
+        <v>134969.5017688793</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.130381546017107e-06</v>
+        <v>7.807961646842979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>82873.1379157513</v>
+        <v>122088.201950979</v>
       </c>
     </row>
     <row r="5">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.97376600155968</v>
+        <v>98.65858905025114</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.63646131732476</v>
+        <v>134.9890340482613</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.89080606180279</v>
+        <v>122.1058700970305</v>
       </c>
       <c r="AD5" t="n">
-        <v>66973.76600155968</v>
+        <v>98658.58905025113</v>
       </c>
       <c r="AE5" t="n">
-        <v>91636.46131732476</v>
+        <v>134989.0340482613</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.133203365604846e-06</v>
+        <v>7.812256192758862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>82890.8060618028</v>
+        <v>122105.8700970305</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.30111366069416</v>
+        <v>124.8807469267979</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.2904557482543</v>
+        <v>170.8673472948944</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2374719014421</v>
+        <v>154.5600074829453</v>
       </c>
       <c r="AD2" t="n">
-        <v>92301.11366069416</v>
+        <v>124880.7469267979</v>
       </c>
       <c r="AE2" t="n">
-        <v>126290.4557482543</v>
+        <v>170867.3472948944</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.091260421048175e-06</v>
+        <v>6.10788643460912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>114237.4719014421</v>
+        <v>154560.0074829453</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.63120816556223</v>
+        <v>105.1299611332065</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.323176209928</v>
+        <v>143.8434508289433</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.79408711203097</v>
+        <v>130.1152337674191</v>
       </c>
       <c r="AD3" t="n">
-        <v>80631.20816556223</v>
+        <v>105129.9611332065</v>
       </c>
       <c r="AE3" t="n">
-        <v>110323.176209928</v>
+        <v>143843.4508289433</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.567280299228518e-06</v>
+        <v>6.818541601311295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99794.08711203096</v>
+        <v>130115.2337674191</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.04553836540835</v>
+        <v>103.625082122961</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.2076398994585</v>
+        <v>141.7844089765502</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.93027917925771</v>
+        <v>128.2527039795343</v>
       </c>
       <c r="AD4" t="n">
-        <v>71045.53836540834</v>
+        <v>103625.082122961</v>
       </c>
       <c r="AE4" t="n">
-        <v>97207.6398994585</v>
+        <v>141784.4089765502</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.730464833908847e-06</v>
+        <v>7.062161538234459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>87930.2791792577</v>
+        <v>128252.7039795343</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.16005988996612</v>
+        <v>102.7396036475188</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.99608918480577</v>
+        <v>140.5728582618975</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.83435716438892</v>
+        <v>127.1567819646655</v>
       </c>
       <c r="AD5" t="n">
-        <v>70160.05988996613</v>
+        <v>102739.6036475188</v>
       </c>
       <c r="AE5" t="n">
-        <v>95996.08918480577</v>
+        <v>140572.8582618975</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.820119478829565e-06</v>
+        <v>7.196007916405285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>86834.35716438892</v>
+        <v>127156.7819646655</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.79760951349192</v>
+        <v>102.3771532710446</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.50016858953192</v>
+        <v>140.0769376666236</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.38576653469894</v>
+        <v>126.7081913349755</v>
       </c>
       <c r="AD6" t="n">
-        <v>69797.60951349192</v>
+        <v>102377.1532710446</v>
       </c>
       <c r="AE6" t="n">
-        <v>95500.16858953192</v>
+        <v>140076.9376666236</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.857852915244009e-06</v>
+        <v>7.252340567150582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>86385.76653469894</v>
+        <v>126708.1913349755</v>
       </c>
     </row>
   </sheetData>
